--- a/data/Budgets and Forecasts.xlsx
+++ b/data/Budgets and Forecasts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/38fedbb726841d9a/Books/Learn Power BI/2nd Edition/PBIX Files/CH4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Interviews\batch23\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{6E459FCD-95AB-4AB0-BB32-429A2ACED11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BB8B5622-0B15-4559-9E23-8E14B0B5A1E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA99BB4-F848-434B-9EF2-D6CF7666933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{369CAD8E-F7C1-47FD-A1A4-FD3D065DA742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{369CAD8E-F7C1-47FD-A1A4-FD3D065DA742}"/>
   </bookViews>
   <sheets>
     <sheet name="Budgets and Forecasts" sheetId="4" r:id="rId1"/>
@@ -104,8 +104,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -148,14 +148,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -176,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -322,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,16 +475,17 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -531,7 +532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -578,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -622,7 +623,7 @@
         <v>12497.06</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -666,7 +667,7 @@
         <v>1581.95</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -710,7 +711,7 @@
         <v>9915.11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -754,7 +755,7 @@
         <v>5955.72</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -798,7 +799,7 @@
         <v>17260.82</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -842,7 +843,7 @@
         <v>1386.27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -886,7 +887,7 @@
         <v>5498.02</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -905,7 +906,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -952,7 +953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -996,7 +997,7 @@
         <v>12041.96</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>1569.51</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>8864.67</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>5065.7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>16909.86</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>1232.72</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>3710.21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
